--- a/khurana_cv/data/in-progress.xlsx
+++ b/khurana_cv/data/in-progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6BE85F-7382-C340-9D63-410441A90879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4CBE5-D76A-499C-AC19-718DF83543E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{8CA0DE4E-45AE-1F42-8B39-0B1001589E5B}"/>
+    <workbookView xWindow="3255" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{8CA0DE4E-45AE-1F42-8B39-0B1001589E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>in-review</t>
-  </si>
-  <si>
-    <t>Anderson, D.</t>
-  </si>
-  <si>
-    <t>*under review*</t>
-  </si>
-  <si>
-    <t>Between-School Variability in Achievement Gaps</t>
-  </si>
-  <si>
-    <t>10.35542/osf.io/saetu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>https://edarxiv.org/saetu/</t>
   </si>
@@ -107,9 +92,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +132,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +238,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,37 +391,23 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -444,10 +415,10 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
